--- a/Imgs_Jogos/Infomações_JOgos.xlsx
+++ b/Imgs_Jogos/Infomações_JOgos.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Principe Sayajin\OneDrive\Área de Trabalho\Projeto 2 Modulo\Projeto Game Flix\projeto-gameflix-blue\Imgs_Jogos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7716B3A-6C52-49C2-8836-946B56AC6386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="11115" yWindow="1755" windowWidth="17685" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,100 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Nota Metacritc</t>
+  </si>
+  <si>
+    <t>Classificação</t>
+  </si>
+  <si>
+    <t>Genero</t>
+  </si>
+  <si>
+    <t>Ano de Lançamento</t>
+  </si>
+  <si>
+    <t>Produtora</t>
+  </si>
+  <si>
+    <t>Trailler</t>
+  </si>
+  <si>
+    <t>God Of War</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>18 Anos</t>
+  </si>
+  <si>
+    <t>Ação</t>
+  </si>
+  <si>
+    <t>Santa Monica</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CJ_GCPaKywg</t>
+  </si>
+  <si>
+    <t>Persona 5</t>
+  </si>
+  <si>
+    <t>Rpg</t>
+  </si>
+  <si>
+    <t>P-Studio</t>
+  </si>
+  <si>
+    <t>8.7</t>
+  </si>
+  <si>
+    <t>17 Anos</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wPqSkzNNPIg</t>
+  </si>
+  <si>
+    <t>Grand Chase</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>MMO</t>
+  </si>
+  <si>
+    <t>KOG-Studios</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GS2i5xqfoY8</t>
+  </si>
+  <si>
+    <t>Dead Space</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Secfn81KB8k</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,12 +127,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +153,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +441,275 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2008</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2008</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Imgs_Jogos/Infomações_JOgos.xlsx
+++ b/Imgs_Jogos/Infomações_JOgos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Principe Sayajin\OneDrive\Área de Trabalho\Projeto 2 Modulo\Projeto Game Flix\projeto-gameflix-blue\Imgs_Jogos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Luz\Desktop\Blue\Repositório Módulo 1\GitHub\projeto-gameflix-blue\Imgs_Jogos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7716B3A-6C52-49C2-8836-946B56AC6386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D6AF0F-CDD5-4E3B-9476-ADE1AA1A36F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11115" yWindow="1755" windowWidth="17685" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
   <si>
     <t>Nome</t>
   </si>
@@ -48,39 +48,24 @@
     <t>Trailler</t>
   </si>
   <si>
-    <t>God Of War</t>
-  </si>
-  <si>
     <t>9.5</t>
   </si>
   <si>
-    <t>18 Anos</t>
-  </si>
-  <si>
     <t>Ação</t>
   </si>
   <si>
-    <t>Santa Monica</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=CJ_GCPaKywg</t>
   </si>
   <si>
     <t>Persona 5</t>
   </si>
   <si>
-    <t>Rpg</t>
-  </si>
-  <si>
     <t>P-Studio</t>
   </si>
   <si>
     <t>8.7</t>
   </si>
   <si>
-    <t>17 Anos</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=wPqSkzNNPIg</t>
   </si>
   <si>
@@ -112,16 +97,184 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=Secfn81KB8k</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>God of War IV</t>
+  </si>
+  <si>
+    <t>Você é Isaac Clarke, um engenheiro da nave espacial USG Ishimura. Você não é um guerreiro. Não é um soldado. Porém, é a última linha de defesa entre a tripulação sobrevivente e os perigosos cadáveres reanimados. Os mortos-vivos se tornaram necromorfos, terríveis híbridos de zumbis e alienígenas que não vão sucumbir aos métodos tradicionais. Felizmente, sua ofensiva é igualmente única, pois as poderosas ferramentas de mineração a sua disposição proporcionam os meios para combater tal ameaça.</t>
+  </si>
+  <si>
+    <t>Para a alegria dos fãs de RPG! Descubra a história picaresca de uma jovem equipe de ladrões fantasmas nesta mais recente adição à aclamada série Persona. Durante o dia, aproveite a vida escolar na cidade grande, usando o seu tempo como quiser. Os laços que você formar com as pessoas que você conhecer irão crescer para um grande poder para ajudá-lo a cumprir o seu destino! Depois da escola, use a sua aplicação de celular, Metaverse Navigator para se infiltrar em Palácios--mundos surreais criados a partir de corações de adultos corruptos--e viva a sua vida dupla como um ladrão fantasma. Com o poder de Persona, faça estes criminosos mudarem roubando o Tesouro dos seus distorcidos desejos. Junte-se aos seus novos amigos na luta para reformar a sociedade com o seu prórpio senso de justiça!</t>
+  </si>
+  <si>
+    <t>Um novo começo ousado: sua vingança contra os deuses do Olimpo agora é passado e Kratos vive como um homem comum no reino dos monstros e deuses nórdicos. E é nesse mundo inóspito e implacável que ele precisa lutar para sobreviver... e ensinar seu filho a fazer o mesmo. Essa nova versão surpreendente de God of War desconstrói os principais elementos que definiram a série, combinando-os de uma forma diferente.
+Uma segunda oportunidade: Kratos é pai novamente. Assumindo o papel de mentor e protetor de seu filho, Atreus, que está determinado a conquistar seu respeito, Kratos é forçado a lidar e controlar a fúria que, por muito tempo, foi sua essência, e a explorar um mundo extremamente perigoso com seu filho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Witcher 3 </t>
+  </si>
+  <si>
+    <t>Grand Chase é um RPG online de ação em plataforma com gráficos inspirados em anime.
+Qualquer um pode fazer parte da ação com as teclas direcionais e Z e 20 personagens únicos e charmosos.
+Aventure-se em diversas missões em um mundo de fantasia e desafie o PvP online em tempo real.
+Obtenha equipamentos e aprenda novas habilidades para aproveitar ao máximo a ação em missões e PvP.</t>
+  </si>
+  <si>
+    <t>The Witcher: Wild Hunt é um RPG de mundo aberto de fantasia cheio de escolhas vitais. Em The Witcher, você joga como um caçador de monstros profissional, Geralt de Rívia, em busca da criança da profecia em um vasto mundo aberto, rico em cidades mercantis, ilhas piratas, passagens perigosas nas montanhas e cavernas esquecidas a serem exploradas.</t>
+  </si>
+  <si>
+    <t>9.3</t>
+  </si>
+  <si>
+    <t>CD Projekt Red</t>
+  </si>
+  <si>
+    <t>Sony Interactive Entertainment</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zAhd0FiywfU</t>
+  </si>
+  <si>
+    <t>Action RPG</t>
+  </si>
+  <si>
+    <t>RPG</t>
+  </si>
+  <si>
+    <t>BioShock – The Collection</t>
+  </si>
+  <si>
+    <t>Entre nos mundos inesquecíveis e nas histórias monumentais da série premiada de BioShock com BioShock: The Collection. 
+Viaje para as cidades de Rapture e Columbia em BioShock Remastered, BioShock 2 Remastered e BioShock Infinite: The Complete Edition, incluindo todos os conteúdos adicionais de um jogador. Lute por sua vida e pense mais rápido que seus inimigos, seja sob as ondas ou acima das nuvens.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4 </t>
+  </si>
+  <si>
+    <t>2K</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AqvfZ1id7T4</t>
+  </si>
+  <si>
+    <t>Black Mesa</t>
+  </si>
+  <si>
+    <t>Você é Gordon Freeman, um físico teórico do Centro de Pesquisas Black Mesa. Quando um experimento de rotina dá terrivelmente errado, você deve lutar contra uma invasão alienígena interdimensional e uma equipe de limpeza militar sanguinária para salvar a equipe de ciência ... e o mundo!</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>Crowbar Collective</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TAIJich73NY</t>
+  </si>
+  <si>
+    <t>Metal Gear Solid 3 – Snake Eater</t>
+  </si>
+  <si>
+    <t>Com o destino do mundo em jogo, Snake vê-se forçado a questionar o verdadeiro significado de “lealdade” ao embarcar numa missão solitária para matar o seu antigo mentor.</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>Stealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konami Computer Entertainment </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cGJ-vqsG4Js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uncharted 3: Drake's Deception </t>
+  </si>
+  <si>
+    <t>Um dos melhores jogos de 2011, Uncharted 3: Drake's Deception apresenta jogabilidade agradável e gráficos impressionantes. A história principal foca na tentativa de Drake e seus amigos de encontrar a cidade perdida de Ubar. Então eles viajam para diversos locais do planeta em busca de mais informações a respeito do local secreto.</t>
+  </si>
+  <si>
+    <t>Adventure</t>
+  </si>
+  <si>
+    <t>Sony Computer Entertainment</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DHHcM6aHPnE</t>
+  </si>
+  <si>
+    <t>Assassin´s Creed – Black Flag</t>
+  </si>
+  <si>
+    <t>Assassin’s Creed 4: Black Flag é o mais recente título de uma das franquias de maior sucesso da atualidade. O game da Ubisoft transporta o jogador para um tema nunca antes abordado pela série: piratas. O jogo está disponível tanto para os consoles da nova geração, Xbox One e PS4 quanto para PlayStation 3, Xbox 360, PC e Wii U. Navegue pelos mares caribenhos e se aventure neste repleto mundo aberto na pele do pirata Edward Kenway.</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>Ubisoft</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=O1nRrvsGD9s</t>
+  </si>
+  <si>
+    <t>Guitar Hero - World Tour</t>
+  </si>
+  <si>
+    <t>Guitar Hero World Tour (previamente conhecido como Guitar Hero 4) é o mais novo integrante da série Guita Hero, que marcou pela sua fórmula inovadora mesclando guitarras com jogos rítmicos.
+Assim como acontecia nos jogos anteriores, em Word Tour o músico em potencial deve empunhar sua guitarra de botões coloridos (na falta de uma pode-se usar o controle, porém com alguma provável perda de precisão... e diversão) e seguir as combinações de notas/botões que despencam na tela ao som de alguns dos maiores clássicos do rock e também de bandas emergentes.
+World Tour marca por ser o primeiro da série a permitir que uma banda inteira possa tocar, oferecendo agora além de guitarra (base e solo) também baixo e bateria (para a qual existe um kit próprio). Além disso, o jogo ainda contém um modo chamado “Battle of the Bands”, onde duas bandas (totalizando um máximo de oito jogadores) podem competir simultaneamente pela melhor performance.</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Activision</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JzYLZCeaYgw</t>
+  </si>
+  <si>
+    <t>Age of Empires III – Definitive Edition</t>
+  </si>
+  <si>
+    <t>Age of Empires III - Definitive Edition é uma versão remasterizada pela Microsoft do clássico título de estratégia Age of Empires 3, lançado originalmente em 2005. Produzida pelo Xbox Game Studios em uma parceria com as desenvolvedoras Tantalus Media e Forgotten Empires, a nova versão reúne todas as DLCs e traz diversas melhorias na jogabilidade do game.</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>RTS</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fCcRNUlE7ek</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -150,20 +303,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -442,210 +600,363 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
     <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2008</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2008</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2015</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="2">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2020</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="2">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2004</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10">
+        <v>2011</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="2">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2018</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F11" s="2">
+        <v>2013</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2017</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="E12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="2">
         <v>2008</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2008</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="2">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2020</v>
+      </c>
+      <c r="G13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -654,7 +965,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -663,7 +974,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -709,7 +1020,21 @@
       <c r="G20" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H6" r:id="rId1" xr:uid="{F35E6558-E9DF-42EB-A5EA-E18F5987E459}"/>
+    <hyperlink ref="H5" r:id="rId2" xr:uid="{300F577A-606C-432E-BC4C-805E96064987}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{C4D2B144-BC46-4545-A3DD-F0337056BDB7}"/>
+    <hyperlink ref="H3" r:id="rId4" xr:uid="{DD60A14B-EF83-4614-995C-B01726297675}"/>
+    <hyperlink ref="H2" r:id="rId5" xr:uid="{4C4B52E1-9A71-4232-9A54-2B3084C5B5AD}"/>
+    <hyperlink ref="H7" r:id="rId6" xr:uid="{5B2F06BF-1BE2-43DE-AA01-714AAEF01658}"/>
+    <hyperlink ref="H8" r:id="rId7" xr:uid="{1016F310-E8B8-4589-BA4B-8091B56EC25D}"/>
+    <hyperlink ref="H9" r:id="rId8" xr:uid="{8D65B62B-D3EB-47D7-945D-F2D91A86163A}"/>
+    <hyperlink ref="H10" r:id="rId9" xr:uid="{C89A6313-AD85-49D1-B726-E0C84F69E9C9}"/>
+    <hyperlink ref="H11" r:id="rId10" xr:uid="{8905FEB3-51C4-49EB-BD59-858AEE97E3DA}"/>
+    <hyperlink ref="H12" r:id="rId11" xr:uid="{88682465-DB4D-41B4-8EB9-4356A2DF64A6}"/>
+    <hyperlink ref="H13" r:id="rId12" xr:uid="{A434EE62-6E0C-4D63-BA2E-97935A6752A2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId13"/>
 </worksheet>
 </file>